--- a/allData2.xlsx
+++ b/allData2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="361">
   <si>
     <t>Country</t>
   </si>
@@ -70,12 +70,6 @@
     <t>Middle Africa</t>
   </si>
   <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>AIA</t>
-  </si>
-  <si>
     <t>Americas</t>
   </si>
   <si>
@@ -286,12 +280,6 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>COK</t>
-  </si>
-  <si>
     <t>Polynesia</t>
   </si>
   <si>
@@ -700,12 +688,6 @@
     <t>MNE</t>
   </si>
   <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>MSR</t>
-  </si>
-  <si>
     <t>Morocco</t>
   </si>
   <si>
@@ -1001,12 +983,6 @@
   </si>
   <si>
     <t>SYR</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>TWN</t>
   </si>
   <si>
     <t>Tanzania</t>
@@ -1121,7 +1097,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Plasticwastegeneration(percent）</t>
+    <t>Plasticwastegeneration(percent)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2062,10 +2038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F172" sqref="F172"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2090,10 +2066,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -2191,25 +2167,31 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>0.252</v>
+        <v>0.66</v>
+      </c>
+      <c r="F5">
+        <v>22804</v>
+      </c>
+      <c r="G5">
+        <v>8.3780929446394443E-5</v>
       </c>
       <c r="H5">
-        <v>2.0000000000000001E-4</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="I5">
-        <v>1E-4</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -2220,54 +2202,54 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>0.66</v>
+        <v>0.183</v>
       </c>
       <c r="F6">
-        <v>22804</v>
+        <v>2753550</v>
       </c>
       <c r="G6">
-        <v>8.3780929446394443E-5</v>
+        <v>1.0116425990050842E-2</v>
       </c>
       <c r="H6">
-        <v>3.8999999999999998E-3</v>
+        <v>0.4955</v>
       </c>
       <c r="I6">
-        <v>2E-3</v>
+        <v>0.46350000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>0.183</v>
+        <v>0.252</v>
       </c>
       <c r="F7">
-        <v>2753550</v>
+        <v>9352</v>
       </c>
       <c r="G7">
-        <v>1.0116425990050842E-2</v>
+        <v>3.4358851612992492E-5</v>
       </c>
       <c r="H7">
-        <v>0.4955</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="I7">
-        <v>0.46350000000000002</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -2278,54 +2260,54 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>0.252</v>
+        <v>0.112</v>
       </c>
       <c r="F8">
-        <v>9352</v>
+        <v>900658</v>
       </c>
       <c r="G8">
-        <v>3.4358851612992492E-5</v>
+        <v>3.3089793173711069E-3</v>
       </c>
       <c r="H8">
-        <v>1.1999999999999999E-3</v>
+        <v>4.36E-2</v>
       </c>
       <c r="I8">
-        <v>6.9999999999999999E-4</v>
+        <v>3.5700000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>0.112</v>
+        <v>0.39</v>
       </c>
       <c r="F9">
-        <v>900658</v>
+        <v>51364</v>
       </c>
       <c r="G9">
-        <v>3.3089793173711069E-3</v>
+        <v>1.8870915892319786E-4</v>
       </c>
       <c r="H9">
-        <v>4.36E-2</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="I9">
-        <v>3.5700000000000003E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -2336,83 +2318,83 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E10">
-        <v>0.39</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="F10">
-        <v>51364</v>
+        <v>59785</v>
       </c>
       <c r="G10">
-        <v>1.8870915892319786E-4</v>
+        <v>2.1964755599687298E-4</v>
       </c>
       <c r="H10">
-        <v>4.1999999999999997E-3</v>
+        <v>1.37E-2</v>
       </c>
       <c r="I10">
-        <v>2.5000000000000001E-3</v>
+        <v>1.44E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11">
-        <v>0.13200000000000001</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F11">
-        <v>59785</v>
+        <v>1888170</v>
       </c>
       <c r="G11">
-        <v>2.1964755599687298E-4</v>
+        <v>6.9370565494123217E-3</v>
       </c>
       <c r="H11">
-        <v>1.37E-2</v>
+        <v>2.4725000000000001</v>
       </c>
       <c r="I11">
-        <v>1.44E-2</v>
+        <v>3.1996000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E12">
-        <v>3.4000000000000002E-2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F12">
-        <v>1888170</v>
+        <v>58164</v>
       </c>
       <c r="G12">
-        <v>6.9370565494123217E-3</v>
+        <v>2.1369207070338913E-4</v>
       </c>
       <c r="H12">
-        <v>2.4725000000000001</v>
+        <v>1.09E-2</v>
       </c>
       <c r="I12">
-        <v>3.1996000000000002</v>
+        <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -2423,141 +2405,141 @@
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E13">
-        <v>0.56999999999999995</v>
+        <v>0.08</v>
       </c>
       <c r="F13">
-        <v>58164</v>
+        <v>318151</v>
       </c>
       <c r="G13">
-        <v>2.1369207070338913E-4</v>
+        <v>1.1688732890852409E-3</v>
       </c>
       <c r="H13">
-        <v>1.09E-2</v>
+        <v>8.6E-3</v>
       </c>
       <c r="I13">
-        <v>5.4000000000000003E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14">
-        <v>0.08</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="F14">
-        <v>318151</v>
+        <v>20191</v>
       </c>
       <c r="G14">
-        <v>1.1688732890852409E-3</v>
+        <v>7.4180878199094457E-5</v>
       </c>
       <c r="H14">
-        <v>8.6E-3</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="I14">
-        <v>8.3000000000000001E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15">
-        <v>0.17199999999999999</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F15">
-        <v>20191</v>
+        <v>144382</v>
       </c>
       <c r="G15">
-        <v>7.4180878199094457E-5</v>
+        <v>5.3045334833052627E-4</v>
       </c>
       <c r="H15">
-        <v>1.2200000000000001E-2</v>
+        <v>0.1351</v>
       </c>
       <c r="I15">
-        <v>8.6999999999999994E-3</v>
+        <v>0.1729</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E16">
-        <v>4.2999999999999997E-2</v>
+        <v>0.252</v>
       </c>
       <c r="F16">
-        <v>144382</v>
+        <v>5990</v>
       </c>
       <c r="G16">
-        <v>5.3045334833052627E-4</v>
+        <v>2.2007006112256739E-5</v>
       </c>
       <c r="H16">
-        <v>0.1351</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I16">
-        <v>0.1729</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>0.252</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F17">
-        <v>5990</v>
+        <v>195633</v>
       </c>
       <c r="G17">
-        <v>2.2007006112256739E-5</v>
+        <v>7.1874735004325918E-4</v>
       </c>
       <c r="H17">
-        <v>4.0000000000000002E-4</v>
+        <v>4.07E-2</v>
       </c>
       <c r="I17">
-        <v>2.9999999999999997E-4</v>
+        <v>2.92E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -2568,25 +2550,25 @@
         <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>0.14399999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F18">
-        <v>195633</v>
+        <v>11852055</v>
       </c>
       <c r="G18">
-        <v>7.1874735004325918E-4</v>
+        <v>4.3543947717496333E-2</v>
       </c>
       <c r="H18">
-        <v>4.07E-2</v>
+        <v>1.4803999999999999</v>
       </c>
       <c r="I18">
-        <v>2.92E-2</v>
+        <v>1.3813</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -2597,25 +2579,25 @@
         <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E19">
-        <v>0.16500000000000001</v>
+        <v>0.252</v>
       </c>
       <c r="F19">
-        <v>11852055</v>
+        <v>2504</v>
       </c>
       <c r="G19">
-        <v>4.3543947717496333E-2</v>
+        <v>9.1995898672939693E-6</v>
       </c>
       <c r="H19">
-        <v>1.4803999999999999</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="I19">
-        <v>1.3813</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -2626,83 +2608,83 @@
         <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E20">
-        <v>0.252</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F20">
-        <v>2504</v>
+        <v>3688</v>
       </c>
       <c r="G20">
-        <v>9.1995898672939693E-6</v>
+        <v>1.354955568313904E-5</v>
       </c>
       <c r="H20">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="I20">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21">
-        <v>2.5999999999999999E-2</v>
+        <v>0.154</v>
       </c>
       <c r="F21">
-        <v>3688</v>
+        <v>415707</v>
       </c>
       <c r="G21">
-        <v>1.354955568313904E-5</v>
+        <v>1.5272898981482325E-3</v>
       </c>
       <c r="H21">
-        <v>2.9999999999999997E-4</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="I21">
-        <v>5.0000000000000001E-4</v>
+        <v>3.73E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E22">
-        <v>0.154</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F22">
-        <v>415707</v>
+        <v>344698</v>
       </c>
       <c r="G22">
-        <v>1.5272898981482325E-3</v>
+        <v>1.2664058418835849E-3</v>
       </c>
       <c r="H22">
-        <v>5.8799999999999998E-2</v>
+        <v>9.3200000000000005E-2</v>
       </c>
       <c r="I22">
-        <v>3.73E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -2713,25 +2695,25 @@
         <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>6.6000000000000003E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F23">
-        <v>344698</v>
+        <v>335305</v>
       </c>
       <c r="G23">
-        <v>1.2664058418835849E-3</v>
+        <v>1.2318963580083882E-3</v>
       </c>
       <c r="H23">
-        <v>9.3200000000000005E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="I23">
-        <v>9.0999999999999998E-2</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -2742,25 +2724,25 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E24">
-        <v>4.5999999999999999E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="F24">
-        <v>335305</v>
+        <v>1154309</v>
       </c>
       <c r="G24">
-        <v>1.2318963580083882E-3</v>
+        <v>4.2408823403060044E-3</v>
       </c>
       <c r="H24">
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I24">
-        <v>0.104</v>
+        <v>2.12E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -2771,25 +2753,25 @@
         <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E25">
-        <v>9.2999999999999999E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F25">
-        <v>1154309</v>
+        <v>11919</v>
       </c>
       <c r="G25">
-        <v>4.2408823403060044E-3</v>
+        <v>4.3789900810014706E-5</v>
       </c>
       <c r="H25">
-        <v>2.5000000000000001E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="I25">
-        <v>2.12E-2</v>
+        <v>2.6700000000000002E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -2800,25 +2782,25 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E26">
-        <v>6.5000000000000002E-2</v>
+        <v>0.252</v>
       </c>
       <c r="F26">
-        <v>11919</v>
+        <v>5106</v>
       </c>
       <c r="G26">
-        <v>4.3789900810014706E-5</v>
+        <v>1.875922758083187E-5</v>
       </c>
       <c r="H26">
-        <v>2.9399999999999999E-2</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="I26">
-        <v>2.6700000000000002E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -2829,25 +2811,25 @@
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E27">
-        <v>0.252</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="F27">
-        <v>5106</v>
+        <v>738106</v>
       </c>
       <c r="G27">
-        <v>1.875922758083187E-5</v>
+        <v>2.7117701591808634E-3</v>
       </c>
       <c r="H27">
-        <v>2.9999999999999997E-4</v>
+        <v>6.83E-2</v>
       </c>
       <c r="I27">
-        <v>2.0000000000000001E-4</v>
+        <v>6.1600000000000002E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2858,54 +2840,54 @@
         <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="E28">
-        <v>0.11899999999999999</v>
+        <v>0.121</v>
       </c>
       <c r="F28">
-        <v>738106</v>
+        <v>59079741</v>
       </c>
       <c r="G28">
-        <v>2.7117701591808634E-3</v>
+        <v>0.21705646432346329</v>
       </c>
       <c r="H28">
-        <v>6.83E-2</v>
+        <v>27.6966</v>
       </c>
       <c r="I28">
-        <v>6.1600000000000002E-2</v>
+        <v>25.789300000000001</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="E29">
-        <v>0.121</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F29">
-        <v>59079741</v>
+        <v>2413455</v>
       </c>
       <c r="G29">
-        <v>0.21705646432346329</v>
+        <v>8.8669313750678776E-3</v>
       </c>
       <c r="H29">
-        <v>27.6966</v>
+        <v>0.28949999999999998</v>
       </c>
       <c r="I29">
-        <v>25.789300000000001</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -2916,106 +2898,112 @@
         <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="E30">
-        <v>0.14399999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="F30">
-        <v>2413455</v>
+        <v>50599</v>
       </c>
       <c r="G30">
-        <v>8.8669313750678776E-3</v>
+        <v>1.8589858134792633E-4</v>
       </c>
       <c r="H30">
-        <v>0.28949999999999998</v>
+        <v>0.1822</v>
       </c>
       <c r="I30">
-        <v>0.26050000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E31">
-        <v>0.20100000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F31">
-        <v>50599</v>
+        <v>110479</v>
       </c>
       <c r="G31">
-        <v>1.8589858134792633E-4</v>
+        <v>4.0589516331819906E-4</v>
       </c>
       <c r="H31">
-        <v>0.1822</v>
+        <v>5.2699999999999997E-2</v>
       </c>
       <c r="I31">
-        <v>0.14599999999999999</v>
+        <v>5.7700000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E32">
-        <v>6.9000000000000006E-2</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="F32">
-        <v>110479</v>
+        <v>428029</v>
       </c>
       <c r="G32">
-        <v>4.0589516331819906E-4</v>
+        <v>1.572560403876985E-3</v>
       </c>
       <c r="H32">
-        <v>5.2699999999999997E-2</v>
+        <v>0.13220000000000001</v>
       </c>
       <c r="I32">
-        <v>5.7700000000000001E-2</v>
+        <v>0.1099</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="E33">
-        <v>0.14399999999999999</v>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F33">
+        <v>766988</v>
+      </c>
+      <c r="G33">
+        <v>2.8178814030096113E-3</v>
       </c>
       <c r="H33">
-        <v>1.2999999999999999E-3</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="I33">
-        <v>1.1000000000000001E-3</v>
+        <v>0.77759999999999996</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -3026,25 +3014,25 @@
         <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>0.25800000000000001</v>
+        <v>0.252</v>
       </c>
       <c r="F34">
-        <v>428029</v>
+        <v>406347</v>
       </c>
       <c r="G34">
-        <v>1.572560403876985E-3</v>
+        <v>1.4929016548743221E-3</v>
       </c>
       <c r="H34">
-        <v>0.13220000000000001</v>
+        <v>5.1700000000000003E-2</v>
       </c>
       <c r="I34">
-        <v>0.1099</v>
+        <v>2.8400000000000002E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -3055,25 +3043,25 @@
         <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E35">
-        <v>0.10299999999999999</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F35">
-        <v>766988</v>
+        <v>368154</v>
       </c>
       <c r="G35">
-        <v>2.8178814030096113E-3</v>
+        <v>1.3525821916947859E-3</v>
       </c>
       <c r="H35">
-        <v>0.61099999999999999</v>
+        <v>0.28460000000000002</v>
       </c>
       <c r="I35">
-        <v>0.77759999999999996</v>
+        <v>0.26119999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -3084,25 +3072,25 @@
         <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>0.252</v>
       </c>
       <c r="F36">
-        <v>406347</v>
+        <v>13678</v>
       </c>
       <c r="G36">
-        <v>1.4929016548743221E-3</v>
+        <v>5.0252392254331832E-5</v>
       </c>
       <c r="H36">
-        <v>5.1700000000000003E-2</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="I36">
-        <v>2.8400000000000002E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -3113,25 +3101,25 @@
         <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E37">
-        <v>8.8999999999999996E-2</v>
+        <v>0.248</v>
       </c>
       <c r="F37">
-        <v>368154</v>
+        <v>100713</v>
       </c>
       <c r="G37">
-        <v>1.3525821916947859E-3</v>
+        <v>3.7001529325270669E-4</v>
       </c>
       <c r="H37">
-        <v>0.28460000000000002</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="I37">
-        <v>0.26119999999999999</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -3142,83 +3130,83 @@
         <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E38">
-        <v>0.252</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F38">
-        <v>13678</v>
+        <v>95171</v>
       </c>
       <c r="G38">
-        <v>5.0252392254331832E-5</v>
+        <v>3.4965422015185077E-4</v>
       </c>
       <c r="H38">
-        <v>8.0000000000000004E-4</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="I38">
-        <v>5.0000000000000001E-4</v>
+        <v>6.1000000000000004E-3</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="E39">
-        <v>0.248</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F39">
-        <v>100713</v>
+        <v>31999</v>
       </c>
       <c r="G39">
-        <v>3.7001529325270669E-4</v>
+        <v>1.1756296971387369E-4</v>
       </c>
       <c r="H39">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="I39">
-        <v>3.8E-3</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="E40">
-        <v>4.7E-2</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="F40">
-        <v>95171</v>
+        <v>3885</v>
       </c>
       <c r="G40">
-        <v>3.4965422015185077E-4</v>
+        <v>1.4273325333241641E-5</v>
       </c>
       <c r="H40">
-        <v>5.5999999999999999E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="I40">
-        <v>6.1000000000000004E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -3229,25 +3217,25 @@
         <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E41">
-        <v>0.10299999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F41">
-        <v>31999</v>
+        <v>520238</v>
       </c>
       <c r="G41">
-        <v>1.1756296971387369E-4</v>
+        <v>1.9113323615739936E-3</v>
       </c>
       <c r="H41">
-        <v>5.4399999999999997E-2</v>
+        <v>0.37130000000000002</v>
       </c>
       <c r="I41">
-        <v>6.6000000000000003E-2</v>
+        <v>0.33100000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -3258,25 +3246,25 @@
         <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E42">
-        <v>0.14899999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="F42">
-        <v>3885</v>
+        <v>801321</v>
       </c>
       <c r="G42">
-        <v>1.4273325333241641E-5</v>
+        <v>2.9440193897962742E-3</v>
       </c>
       <c r="H42">
-        <v>2.5000000000000001E-3</v>
+        <v>0.34350000000000003</v>
       </c>
       <c r="I42">
-        <v>2.0999999999999999E-3</v>
+        <v>0.30549999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -3287,25 +3275,25 @@
         <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E43">
-        <v>0.14399999999999999</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="F43">
-        <v>520238</v>
+        <v>5464471</v>
       </c>
       <c r="G43">
-        <v>1.9113323615739936E-3</v>
+        <v>2.0076234840943188E-2</v>
       </c>
       <c r="H43">
-        <v>0.37130000000000002</v>
+        <v>3.0367000000000002</v>
       </c>
       <c r="I43">
-        <v>0.33100000000000002</v>
+        <v>2.8047</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -3316,25 +3304,25 @@
         <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E44">
         <v>0.14699999999999999</v>
       </c>
       <c r="F44">
-        <v>801321</v>
+        <v>330763</v>
       </c>
       <c r="G44">
-        <v>2.9440193897962742E-3</v>
+        <v>1.2152092425222665E-3</v>
       </c>
       <c r="H44">
-        <v>0.34350000000000003</v>
+        <v>0.37290000000000001</v>
       </c>
       <c r="I44">
-        <v>0.30549999999999999</v>
+        <v>0.32840000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -3348,22 +3336,22 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E45">
-        <v>0.17799999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F45">
-        <v>5464471</v>
+        <v>49990</v>
       </c>
       <c r="G45">
-        <v>2.0076234840943188E-2</v>
+        <v>1.8366114116055333E-4</v>
       </c>
       <c r="H45">
-        <v>3.0367000000000002</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="I45">
-        <v>2.8047</v>
+        <v>2.0400000000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -3374,25 +3362,25 @@
         <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E46">
-        <v>0.14699999999999999</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F46">
-        <v>330763</v>
+        <v>72120</v>
       </c>
       <c r="G46">
-        <v>1.2152092425222665E-3</v>
+        <v>2.6496582317461705E-4</v>
       </c>
       <c r="H46">
-        <v>0.37290000000000001</v>
+        <v>5.11E-2</v>
       </c>
       <c r="I46">
-        <v>0.32840000000000003</v>
+        <v>6.2899999999999998E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -3403,25 +3391,25 @@
         <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="E47">
-        <v>0.14399999999999999</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="F47">
-        <v>49990</v>
+        <v>85534</v>
       </c>
       <c r="G47">
-        <v>1.8366114116055333E-4</v>
+        <v>3.1424829061865907E-4</v>
       </c>
       <c r="H47">
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="I47">
-        <v>2.0400000000000001E-2</v>
+        <v>1.21E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -3432,83 +3420,83 @@
         <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="E48">
-        <v>4.4999999999999998E-2</v>
+        <v>0.189</v>
       </c>
       <c r="F48">
-        <v>72120</v>
+        <v>59324</v>
       </c>
       <c r="G48">
-        <v>2.6496582317461705E-4</v>
+        <v>2.1795386153648059E-4</v>
       </c>
       <c r="H48">
-        <v>5.11E-2</v>
+        <v>0.1547</v>
       </c>
       <c r="I48">
-        <v>6.2899999999999998E-2</v>
+        <v>0.1028</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E49">
-        <v>0.17599999999999999</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="F49">
-        <v>85534</v>
+        <v>458084</v>
       </c>
       <c r="G49">
-        <v>3.1424829061865907E-4</v>
+        <v>1.6829811999878156E-3</v>
       </c>
       <c r="H49">
-        <v>1.8800000000000001E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="I49">
-        <v>1.21E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="E50">
-        <v>0.189</v>
+        <v>0.192</v>
       </c>
       <c r="F50">
-        <v>59324</v>
+        <v>4557128</v>
       </c>
       <c r="G50">
-        <v>2.1795386153648059E-4</v>
+        <v>1.6742695116917585E-2</v>
       </c>
       <c r="H50">
-        <v>0.1547</v>
+        <v>7.5700000000000003E-2</v>
       </c>
       <c r="I50">
-        <v>0.1028</v>
+        <v>5.0200000000000002E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -3519,25 +3507,25 @@
         <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E51">
-        <v>0.23400000000000001</v>
+        <v>0.252</v>
       </c>
       <c r="F51">
-        <v>458084</v>
+        <v>24634</v>
       </c>
       <c r="G51">
-        <v>1.6829811999878156E-3</v>
+        <v>9.0504271881357678E-5</v>
       </c>
       <c r="H51">
-        <v>1.5699999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I51">
-        <v>9.2999999999999992E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -3548,25 +3536,25 @@
         <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E52">
-        <v>0.192</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F52">
-        <v>4557128</v>
+        <v>32329</v>
       </c>
       <c r="G52">
-        <v>1.6742695116917585E-2</v>
+        <v>1.1877537572673591E-4</v>
       </c>
       <c r="H52">
-        <v>7.5700000000000003E-2</v>
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="I52">
-        <v>5.0200000000000002E-2</v>
+        <v>2.24E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
@@ -3577,25 +3565,25 @@
         <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="E53">
-        <v>0.252</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F53">
-        <v>24634</v>
+        <v>29646</v>
       </c>
       <c r="G53">
-        <v>9.0504271881357678E-5</v>
+        <v>1.0891814744640455E-4</v>
       </c>
       <c r="H53">
-        <v>4.0000000000000001E-3</v>
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="I53">
-        <v>2.5999999999999999E-3</v>
+        <v>7.7399999999999997E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
@@ -3606,25 +3594,25 @@
         <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E54">
-        <v>5.3999999999999999E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F54">
-        <v>32329</v>
+        <v>97443</v>
       </c>
       <c r="G54">
-        <v>1.1877537572673591E-4</v>
+        <v>3.5800145185252647E-4</v>
       </c>
       <c r="H54">
-        <v>1.9099999999999999E-2</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="I54">
-        <v>2.24E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
@@ -3635,25 +3623,25 @@
         <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E55">
-        <v>4.8000000000000001E-2</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="F55">
-        <v>29646</v>
+        <v>14476561</v>
       </c>
       <c r="G55">
-        <v>1.0891814744640455E-4</v>
+        <v>5.3186271521111439E-2</v>
       </c>
       <c r="H55">
-        <v>6.1600000000000002E-2</v>
+        <v>9.8100000000000007E-2</v>
       </c>
       <c r="I55">
-        <v>7.7399999999999997E-2</v>
+        <v>4.82E-2</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -3664,25 +3652,25 @@
         <v>140</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E56">
-        <v>6.8000000000000005E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F56">
-        <v>97443</v>
+        <v>357877</v>
       </c>
       <c r="G56">
-        <v>3.5800145185252647E-4</v>
+        <v>1.3148249292881645E-3</v>
       </c>
       <c r="H56">
-        <v>4.5400000000000003E-2</v>
+        <v>0.28760000000000002</v>
       </c>
       <c r="I56">
-        <v>3.5499999999999997E-2</v>
+        <v>0.47060000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
@@ -3696,22 +3684,22 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E57">
-        <v>0.48499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="F57">
-        <v>14476561</v>
+        <v>811858</v>
       </c>
       <c r="G57">
-        <v>5.3186271521111439E-2</v>
+        <v>2.9827318811827264E-3</v>
       </c>
       <c r="H57">
-        <v>9.8100000000000007E-2</v>
+        <v>4.4699999999999997E-2</v>
       </c>
       <c r="I57">
-        <v>4.82E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -3722,25 +3710,25 @@
         <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E58">
-        <v>0.04</v>
+        <v>0.252</v>
       </c>
       <c r="F58">
-        <v>357877</v>
+        <v>5234</v>
       </c>
       <c r="G58">
-        <v>1.3148249292881645E-3</v>
+        <v>1.9229494155517824E-5</v>
       </c>
       <c r="H58">
-        <v>0.28760000000000002</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="I58">
-        <v>0.47060000000000002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -3751,25 +3739,25 @@
         <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E59">
-        <v>0.2</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F59">
-        <v>811858</v>
+        <v>12417</v>
       </c>
       <c r="G59">
-        <v>2.9827318811827264E-3</v>
+        <v>4.5619531702152242E-5</v>
       </c>
       <c r="H59">
-        <v>4.4699999999999997E-2</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="I59">
-        <v>2.7E-2</v>
+        <v>3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
@@ -3780,83 +3768,83 @@
         <v>148</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="E60">
         <v>0.252</v>
       </c>
       <c r="F60">
-        <v>5234</v>
+        <v>14666</v>
       </c>
       <c r="G60">
-        <v>1.9229494155517824E-5</v>
+        <v>5.3882262377689037E-5</v>
       </c>
       <c r="H60">
-        <v>2.9999999999999997E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="I60">
-        <v>2.0000000000000001E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E61">
-        <v>0.32500000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F61">
-        <v>12417</v>
+        <v>1495229</v>
       </c>
       <c r="G61">
-        <v>4.5619531702152242E-5</v>
+        <v>5.4934079703211234E-3</v>
       </c>
       <c r="H61">
-        <v>7.1000000000000004E-3</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="I61">
-        <v>3.5000000000000001E-3</v>
+        <v>0.2283</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="E62">
-        <v>0.252</v>
+        <v>0.03</v>
       </c>
       <c r="F62">
-        <v>14666</v>
+        <v>118196</v>
       </c>
       <c r="G62">
-        <v>5.3882262377689037E-5</v>
+        <v>4.342470942311014E-4</v>
       </c>
       <c r="H62">
-        <v>1.1999999999999999E-3</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="I62">
-        <v>8.0000000000000004E-4</v>
+        <v>8.6699999999999999E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
@@ -3867,25 +3855,25 @@
         <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E63">
-        <v>0.28000000000000003</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F63">
-        <v>1495229</v>
+        <v>30666</v>
       </c>
       <c r="G63">
-        <v>5.4934079703211234E-3</v>
+        <v>1.1266558421343325E-4</v>
       </c>
       <c r="H63">
-        <v>0.28749999999999998</v>
+        <v>6.3600000000000004E-2</v>
       </c>
       <c r="I63">
-        <v>0.2283</v>
+        <v>7.5200000000000003E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
@@ -3896,25 +3884,25 @@
         <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E64">
-        <v>0.03</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="F64">
-        <v>118196</v>
+        <v>159681</v>
       </c>
       <c r="G64">
-        <v>4.342470942311014E-4</v>
+        <v>5.86661225878342E-4</v>
       </c>
       <c r="H64">
-        <v>5.8099999999999999E-2</v>
+        <v>0.13189999999999999</v>
       </c>
       <c r="I64">
-        <v>8.6699999999999999E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
@@ -3925,25 +3913,25 @@
         <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E65">
-        <v>5.3999999999999999E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F65">
-        <v>30666</v>
+        <v>328487</v>
       </c>
       <c r="G65">
-        <v>1.1266558421343325E-4</v>
+        <v>1.2068473149911317E-3</v>
       </c>
       <c r="H65">
-        <v>6.3600000000000004E-2</v>
+        <v>0.46279999999999999</v>
       </c>
       <c r="I65">
-        <v>7.5200000000000003E-2</v>
+        <v>0.46929999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
@@ -3954,25 +3942,25 @@
         <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E66">
-        <v>0.58599999999999997</v>
+        <v>0.189</v>
       </c>
       <c r="F66">
-        <v>159681</v>
+        <v>565317</v>
       </c>
       <c r="G66">
-        <v>5.86661225878342E-4</v>
+        <v>2.0769506968885882E-3</v>
       </c>
       <c r="H66">
-        <v>0.13189999999999999</v>
+        <v>0.30030000000000001</v>
       </c>
       <c r="I66">
-        <v>5.2299999999999999E-2</v>
+        <v>0.27379999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
@@ -3983,25 +3971,25 @@
         <v>163</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="E67">
-        <v>0.09</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="F67">
-        <v>328487</v>
+        <v>1020406</v>
       </c>
       <c r="G67">
-        <v>1.2068473149911317E-3</v>
+        <v>3.7489283938202753E-3</v>
       </c>
       <c r="H67">
-        <v>0.46279999999999999</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="I67">
-        <v>0.46929999999999999</v>
+        <v>5.4399999999999997E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
@@ -4012,25 +4000,25 @@
         <v>165</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="E68">
-        <v>0.189</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="F68">
-        <v>565317</v>
+        <v>32620</v>
       </c>
       <c r="G68">
-        <v>2.0769506968885882E-3</v>
+        <v>1.1984449739262351E-4</v>
       </c>
       <c r="H68">
-        <v>0.30030000000000001</v>
+        <v>1.9E-3</v>
       </c>
       <c r="I68">
-        <v>0.27379999999999999</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
@@ -4041,25 +4029,25 @@
         <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D69" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E69">
-        <v>0.39800000000000002</v>
+        <v>0.01</v>
       </c>
       <c r="F69">
-        <v>1020406</v>
+        <v>4493080</v>
       </c>
       <c r="G69">
-        <v>3.7489283938202753E-3</v>
+        <v>1.6507385479609098E-2</v>
       </c>
       <c r="H69">
-        <v>8.9499999999999996E-2</v>
+        <v>1.8835999999999999</v>
       </c>
       <c r="I69">
-        <v>5.4399999999999997E-2</v>
+        <v>4.1711</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
@@ -4070,25 +4058,25 @@
         <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="E70">
-        <v>0.28100000000000003</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F70">
-        <v>32620</v>
+        <v>5045714</v>
       </c>
       <c r="G70">
-        <v>1.1984449739262351E-4</v>
+        <v>1.8537739372070018E-2</v>
       </c>
       <c r="H70">
-        <v>1.9E-3</v>
+        <v>10.101900000000001</v>
       </c>
       <c r="I70">
-        <v>1.2999999999999999E-3</v>
+        <v>10.734500000000001</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
@@ -4099,25 +4087,25 @@
         <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D71" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E71">
-        <v>0.01</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F71">
-        <v>4493080</v>
+        <v>3919268</v>
       </c>
       <c r="G71">
-        <v>1.6507385479609098E-2</v>
+        <v>1.4399224512783346E-2</v>
       </c>
       <c r="H71">
-        <v>1.8835999999999999</v>
+        <v>0.77690000000000003</v>
       </c>
       <c r="I71">
-        <v>4.1711</v>
+        <v>0.66600000000000004</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
@@ -4128,25 +4116,25 @@
         <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D72" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E72">
-        <v>5.7000000000000002E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F72">
-        <v>5045714</v>
+        <v>1156524</v>
       </c>
       <c r="G72">
-        <v>1.8537739372070018E-2</v>
+        <v>4.2490201564226397E-3</v>
       </c>
       <c r="H72">
-        <v>10.101900000000001</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="I72">
-        <v>10.734500000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
@@ -4157,25 +4145,25 @@
         <v>175</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E73">
-        <v>0.14399999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="F73">
-        <v>3919268</v>
+        <v>715716</v>
       </c>
       <c r="G73">
-        <v>1.4399224512783346E-2</v>
+        <v>2.6295102481869691E-3</v>
       </c>
       <c r="H73">
-        <v>0.77690000000000003</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="I73">
-        <v>0.66600000000000004</v>
+        <v>2.0299999999999999E-2</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
@@ -4186,25 +4174,25 @@
         <v>177</v>
       </c>
       <c r="C74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E74">
-        <v>0.10299999999999999</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="F74">
-        <v>1156524</v>
+        <v>826436</v>
       </c>
       <c r="G74">
-        <v>4.2490201564226397E-3</v>
+        <v>3.0362908352903188E-3</v>
       </c>
       <c r="H74">
-        <v>4.8899999999999999E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="I74">
-        <v>6.9000000000000006E-2</v>
+        <v>4.0800000000000003E-2</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
@@ -4218,22 +4206,22 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>0.43</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="F75">
-        <v>715716</v>
+        <v>2899258</v>
       </c>
       <c r="G75">
-        <v>2.6295102481869691E-3</v>
+        <v>1.0651751006178505E-2</v>
       </c>
       <c r="H75">
-        <v>3.6799999999999999E-2</v>
+        <v>0.10290000000000001</v>
       </c>
       <c r="I75">
-        <v>2.0299999999999999E-2</v>
+        <v>6.5199999999999994E-2</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
@@ -4244,25 +4232,25 @@
         <v>181</v>
       </c>
       <c r="C76" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E76">
-        <v>0.29699999999999999</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F76">
-        <v>826436</v>
+        <v>34962</v>
       </c>
       <c r="G76">
-        <v>3.0362908352903188E-3</v>
+        <v>1.2844890612633057E-4</v>
       </c>
       <c r="H76">
-        <v>5.9700000000000003E-2</v>
+        <v>3.15E-2</v>
       </c>
       <c r="I76">
-        <v>4.0800000000000003E-2</v>
+        <v>8.6199999999999999E-2</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
@@ -4273,25 +4261,25 @@
         <v>183</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E77">
-        <v>0.13400000000000001</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="F77">
-        <v>2899258</v>
+        <v>7993489</v>
       </c>
       <c r="G77">
-        <v>1.0651751006178505E-2</v>
+        <v>2.9367739779842573E-2</v>
       </c>
       <c r="H77">
-        <v>0.10290000000000001</v>
+        <v>0.44940000000000002</v>
       </c>
       <c r="I77">
-        <v>6.5199999999999994E-2</v>
+        <v>0.25659999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
@@ -4302,25 +4290,25 @@
         <v>185</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D78" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E78">
-        <v>3.4000000000000002E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F78">
-        <v>34962</v>
+        <v>377506</v>
       </c>
       <c r="G78">
-        <v>1.2844890612633057E-4</v>
+        <v>1.3869410433077784E-3</v>
       </c>
       <c r="H78">
-        <v>3.15E-2</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="I78">
-        <v>8.6199999999999999E-2</v>
+        <v>4.3E-3</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
@@ -4331,25 +4319,25 @@
         <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E79">
-        <v>0.17100000000000001</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F79">
-        <v>7993489</v>
+        <v>407506</v>
       </c>
       <c r="G79">
-        <v>2.9367739779842573E-2</v>
+        <v>1.4971597717497987E-3</v>
       </c>
       <c r="H79">
-        <v>0.44940000000000002</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="I79">
-        <v>0.25659999999999999</v>
+        <v>0.12609999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
@@ -4360,25 +4348,25 @@
         <v>189</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D80" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="E80">
-        <v>0.14399999999999999</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F80">
-        <v>377506</v>
+        <v>3859</v>
       </c>
       <c r="G80">
-        <v>1.3869410433077784E-3</v>
+        <v>1.4177802435258556E-5</v>
       </c>
       <c r="H80">
-        <v>5.4999999999999997E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="I80">
-        <v>4.3E-3</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
@@ -4389,25 +4377,25 @@
         <v>191</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D81" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="E81">
-        <v>2.7E-2</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="F81">
-        <v>407506</v>
+        <v>750690</v>
       </c>
       <c r="G81">
-        <v>1.4971597717497987E-3</v>
+        <v>2.7580032418046763E-3</v>
       </c>
       <c r="H81">
-        <v>7.1199999999999999E-2</v>
+        <v>3.61E-2</v>
       </c>
       <c r="I81">
-        <v>0.12609999999999999</v>
+        <v>1.95E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
@@ -4418,25 +4406,25 @@
         <v>193</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="E82">
-        <v>0.10299999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="F82">
-        <v>3859</v>
+        <v>94935</v>
       </c>
       <c r="G82">
-        <v>1.4177802435258556E-5</v>
+        <v>3.4878716615477351E-4</v>
       </c>
       <c r="H82">
-        <v>9.5999999999999992E-3</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="I82">
-        <v>1.01E-2</v>
+        <v>2.41E-2</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
@@ -4447,25 +4435,25 @@
         <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E83">
-        <v>0.68600000000000005</v>
+        <v>9.4E-2</v>
       </c>
       <c r="F83">
-        <v>750690</v>
+        <v>148807</v>
       </c>
       <c r="G83">
-        <v>2.7580032418046763E-3</v>
+        <v>5.4671061077572432E-4</v>
       </c>
       <c r="H83">
-        <v>3.61E-2</v>
+        <v>0.1502</v>
       </c>
       <c r="I83">
-        <v>1.95E-2</v>
+        <v>0.1474</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
@@ -4476,25 +4464,25 @@
         <v>197</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="E84">
-        <v>0.124</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F84">
-        <v>94935</v>
+        <v>121050</v>
       </c>
       <c r="G84">
-        <v>3.4878716615477351E-4</v>
+        <v>4.447325692635523E-4</v>
       </c>
       <c r="H84">
-        <v>3.2300000000000002E-2</v>
+        <v>0.17810000000000001</v>
       </c>
       <c r="I84">
-        <v>2.41E-2</v>
+        <v>0.20669999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
@@ -4505,25 +4493,25 @@
         <v>199</v>
       </c>
       <c r="C85" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E85">
-        <v>9.4E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F85">
-        <v>148807</v>
+        <v>324250</v>
       </c>
       <c r="G85">
-        <v>5.4671061077572432E-4</v>
+        <v>1.1912807565775038E-3</v>
       </c>
       <c r="H85">
-        <v>0.1502</v>
+        <v>0.16569999999999999</v>
       </c>
       <c r="I85">
-        <v>0.1474</v>
+        <v>0.14849999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
@@ -4534,25 +4522,25 @@
         <v>201</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="E86">
-        <v>8.4000000000000005E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="F86">
-        <v>121050</v>
+        <v>149227</v>
       </c>
       <c r="G86">
-        <v>4.447325692635523E-4</v>
+        <v>5.4825367297391256E-4</v>
       </c>
       <c r="H86">
-        <v>0.17810000000000001</v>
+        <v>1.09E-2</v>
       </c>
       <c r="I86">
-        <v>0.20669999999999999</v>
+        <v>7.9000000000000008E-3</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
@@ -4563,25 +4551,25 @@
         <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E87">
-        <v>0.14399999999999999</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="F87">
-        <v>324250</v>
+        <v>72126</v>
       </c>
       <c r="G87">
-        <v>1.1912807565775038E-3</v>
+        <v>2.6498786692030546E-4</v>
       </c>
       <c r="H87">
-        <v>0.16569999999999999</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="I87">
-        <v>0.14849999999999999</v>
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
@@ -4592,25 +4580,25 @@
         <v>205</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E88">
-        <v>0.13200000000000001</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F88">
-        <v>149227</v>
+        <v>123526</v>
       </c>
       <c r="G88">
-        <v>5.4825367297391256E-4</v>
+        <v>4.5382928831763371E-4</v>
       </c>
       <c r="H88">
-        <v>1.09E-2</v>
+        <v>0.1084</v>
       </c>
       <c r="I88">
-        <v>7.9000000000000008E-3</v>
+        <v>0.2571</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
@@ -4621,25 +4609,25 @@
         <v>207</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D89" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E89">
-        <v>0.36799999999999999</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="F89">
-        <v>72126</v>
+        <v>2031675</v>
       </c>
       <c r="G89">
-        <v>2.6498786692030546E-4</v>
+        <v>7.4642878369147259E-3</v>
       </c>
       <c r="H89">
-        <v>2.2000000000000001E-3</v>
+        <v>2.9419</v>
       </c>
       <c r="I89">
-        <v>1.6999999999999999E-3</v>
+        <v>2.5565000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
@@ -4650,25 +4638,25 @@
         <v>209</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D90" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="E90">
-        <v>1.6E-2</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="F90">
-        <v>123526</v>
+        <v>43134</v>
       </c>
       <c r="G90">
-        <v>4.5382928831763371E-4</v>
+        <v>1.5847248775393693E-4</v>
       </c>
       <c r="H90">
-        <v>0.1084</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="I90">
-        <v>0.2571</v>
+        <v>5.8099999999999999E-2</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
@@ -4679,25 +4667,25 @@
         <v>211</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E91">
-        <v>0.19800000000000001</v>
+        <v>0.214</v>
       </c>
       <c r="F91">
-        <v>2031675</v>
+        <v>32377</v>
       </c>
       <c r="G91">
-        <v>7.4642878369147259E-3</v>
+        <v>1.1895172569224315E-4</v>
       </c>
       <c r="H91">
-        <v>2.9419</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="I91">
-        <v>2.5565000000000002</v>
+        <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
@@ -4708,25 +4696,25 @@
         <v>213</v>
       </c>
       <c r="C92" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D92" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="E92">
-        <v>0.32200000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="F92">
-        <v>43134</v>
+        <v>3674</v>
       </c>
       <c r="G92">
-        <v>1.5847248775393693E-4</v>
+        <v>1.3498120276532764E-5</v>
       </c>
       <c r="H92">
-        <v>9.8799999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="I92">
-        <v>5.8099999999999999E-2</v>
+        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
@@ -4737,25 +4725,25 @@
         <v>215</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E93">
-        <v>0.214</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F93">
-        <v>32377</v>
+        <v>59287</v>
       </c>
       <c r="G93">
-        <v>1.1895172569224315E-4</v>
+        <v>2.1781792510473544E-4</v>
       </c>
       <c r="H93">
-        <v>8.2000000000000007E-3</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="I93">
-        <v>5.4000000000000003E-3</v>
+        <v>5.7500000000000002E-2</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
@@ -4766,25 +4754,25 @@
         <v>217</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="E94">
-        <v>0.192</v>
+        <v>0.23</v>
       </c>
       <c r="F94">
-        <v>3674</v>
+        <v>104971</v>
       </c>
       <c r="G94">
-        <v>1.3498120276532764E-5</v>
+        <v>3.8565900477624407E-4</v>
       </c>
       <c r="H94">
-        <v>0.01</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I94">
-        <v>8.3000000000000001E-3</v>
+        <v>0.10589999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
@@ -4795,25 +4783,25 @@
         <v>219</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E95">
-        <v>4.4999999999999998E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F95">
-        <v>59287</v>
+        <v>3725463</v>
       </c>
       <c r="G95">
-        <v>2.1781792510473544E-4</v>
+        <v>1.368719315725982E-2</v>
       </c>
       <c r="H95">
-        <v>4.3499999999999997E-2</v>
+        <v>0.31819999999999998</v>
       </c>
       <c r="I95">
-        <v>5.7500000000000002E-2</v>
+        <v>0.33789999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
@@ -4824,25 +4812,25 @@
         <v>221</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="E96">
-        <v>0.23</v>
+        <v>0.252</v>
       </c>
       <c r="F96">
-        <v>104971</v>
+        <v>3412</v>
       </c>
       <c r="G96">
-        <v>3.8565900477624407E-4</v>
+        <v>1.2535543381472453E-5</v>
       </c>
       <c r="H96">
-        <v>0.17599999999999999</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="I96">
-        <v>0.10589999999999999</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
@@ -4853,25 +4841,25 @@
         <v>223</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E97">
-        <v>8.6999999999999994E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F97">
-        <v>3725463</v>
+        <v>32557</v>
       </c>
       <c r="G97">
-        <v>1.368719315725982E-2</v>
+        <v>1.1961303806289526E-4</v>
       </c>
       <c r="H97">
-        <v>0.31819999999999998</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="I97">
-        <v>0.33789999999999998</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
@@ -4882,25 +4870,25 @@
         <v>225</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E98">
-        <v>0.252</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F98">
-        <v>3412</v>
+        <v>863555</v>
       </c>
       <c r="G98">
-        <v>1.2535543381472453E-5</v>
+        <v>3.1726644679916306E-3</v>
       </c>
       <c r="H98">
-        <v>2.0000000000000001E-4</v>
+        <v>0.97389999999999999</v>
       </c>
       <c r="I98">
-        <v>1E-4</v>
+        <v>1.0228999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
@@ -4911,25 +4899,25 @@
         <v>227</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E99">
-        <v>0.14399999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F99">
-        <v>32557</v>
+        <v>132612</v>
       </c>
       <c r="G99">
-        <v>1.1961303806289526E-4</v>
+        <v>4.8721086720510695E-4</v>
       </c>
       <c r="H99">
-        <v>1.3899999999999999E-2</v>
+        <v>0.1444</v>
       </c>
       <c r="I99">
-        <v>1.0500000000000001E-2</v>
+        <v>0.41560000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
@@ -4940,19 +4928,25 @@
         <v>229</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D100" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E100">
-        <v>0.14399999999999999</v>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F100">
+        <v>1373018</v>
+      </c>
+      <c r="G100">
+        <v>5.044409936266865E-3</v>
       </c>
       <c r="H100">
-        <v>1E-4</v>
+        <v>1.4391</v>
       </c>
       <c r="I100">
-        <v>1E-4</v>
+        <v>1.6637</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
@@ -4966,109 +4960,109 @@
         <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="E101">
-        <v>7.2999999999999995E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F101">
-        <v>863555</v>
+        <v>114222</v>
       </c>
       <c r="G101">
-        <v>3.1726644679916306E-3</v>
+        <v>4.1964678667014843E-4</v>
       </c>
       <c r="H101">
-        <v>0.97389999999999999</v>
+        <v>1.72E-2</v>
       </c>
       <c r="I101">
-        <v>1.0228999999999999</v>
+        <v>1.6400000000000001E-2</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B102" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D102" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="E102">
-        <v>1.4999999999999999E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F102">
-        <v>132612</v>
+        <v>527</v>
       </c>
       <c r="G102">
-        <v>4.8721086720510695E-4</v>
+        <v>1.936175662964825E-6</v>
       </c>
       <c r="H102">
-        <v>0.1444</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="I102">
-        <v>0.41560000000000002</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C103" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E103">
-        <v>7.4999999999999997E-2</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="F103">
-        <v>1373018</v>
+        <v>2571398</v>
       </c>
       <c r="G103">
-        <v>5.044409936266865E-3</v>
+        <v>9.4472072626118116E-3</v>
       </c>
       <c r="H103">
-        <v>1.4391</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="I103">
-        <v>1.6637</v>
+        <v>4.6899999999999997E-2</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B104" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D104" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="E104">
-        <v>0.14399999999999999</v>
+        <v>0.252</v>
       </c>
       <c r="F104">
-        <v>114222</v>
+        <v>22995</v>
       </c>
       <c r="G104">
-        <v>4.1964678667014843E-4</v>
+        <v>8.4482655350808636E-5</v>
       </c>
       <c r="H104">
-        <v>1.72E-2</v>
+        <v>1.5E-3</v>
       </c>
       <c r="I104">
-        <v>1.6400000000000001E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
@@ -5079,25 +5073,25 @@
         <v>240</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D105" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="E105">
-        <v>0.14399999999999999</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="F105">
-        <v>527</v>
+        <v>525630</v>
       </c>
       <c r="G105">
-        <v>1.936175662964825E-6</v>
+        <v>1.9311423410326393E-3</v>
       </c>
       <c r="H105">
-        <v>1.6999999999999999E-3</v>
+        <v>2.92E-2</v>
       </c>
       <c r="I105">
-        <v>1.5E-3</v>
+        <v>1.67E-2</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
@@ -5108,25 +5102,25 @@
         <v>242</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E106">
-        <v>0.42399999999999999</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F106">
-        <v>2571398</v>
+        <v>299480</v>
       </c>
       <c r="G106">
-        <v>9.4472072626118116E-3</v>
+        <v>1.1002768264605422E-3</v>
       </c>
       <c r="H106">
-        <v>8.6999999999999994E-2</v>
+        <v>0.2651</v>
       </c>
       <c r="I106">
-        <v>4.6899999999999997E-2</v>
+        <v>0.24529999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
@@ -5137,25 +5131,25 @@
         <v>244</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="E107">
-        <v>0.252</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F107">
-        <v>22995</v>
+        <v>5961750</v>
       </c>
       <c r="G107">
-        <v>8.4482655350808636E-5</v>
+        <v>2.1903216809640504E-2</v>
       </c>
       <c r="H107">
-        <v>1.5E-3</v>
+        <v>2.6739999999999999</v>
       </c>
       <c r="I107">
-        <v>1E-3</v>
+        <v>3.5916000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
@@ -5166,25 +5160,25 @@
         <v>246</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D108" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E108">
-        <v>0.33100000000000002</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F108">
-        <v>525630</v>
+        <v>484700</v>
       </c>
       <c r="G108">
-        <v>1.9311423410326393E-3</v>
+        <v>1.7807672558615762E-3</v>
       </c>
       <c r="H108">
-        <v>2.92E-2</v>
+        <v>0.95569999999999999</v>
       </c>
       <c r="I108">
-        <v>1.67E-2</v>
+        <v>0.88390000000000002</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
@@ -5195,25 +5189,25 @@
         <v>248</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D109" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="E109">
-        <v>0.14299999999999999</v>
+        <v>0.252</v>
       </c>
       <c r="F109">
-        <v>299480</v>
+        <v>5006</v>
       </c>
       <c r="G109">
-        <v>1.1002768264605422E-3</v>
+        <v>1.839183181935847E-5</v>
       </c>
       <c r="H109">
-        <v>0.2651</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I109">
-        <v>0.24529999999999999</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
@@ -5224,25 +5218,25 @@
         <v>250</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="E110">
-        <v>0.10299999999999999</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F110">
-        <v>5961750</v>
+        <v>499682</v>
       </c>
       <c r="G110">
-        <v>2.1903216809640504E-2</v>
+        <v>1.8358104888455211E-3</v>
       </c>
       <c r="H110">
-        <v>2.6739999999999999</v>
+        <v>2.64E-2</v>
       </c>
       <c r="I110">
-        <v>3.5916000000000001</v>
+        <v>1.4200000000000001E-2</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
@@ -5253,25 +5247,25 @@
         <v>252</v>
       </c>
       <c r="C111" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D111" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="E111">
-        <v>5.3999999999999999E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F111">
-        <v>484700</v>
+        <v>93251</v>
       </c>
       <c r="G111">
-        <v>1.7807672558615762E-3</v>
+        <v>3.4260022153156147E-4</v>
       </c>
       <c r="H111">
-        <v>0.95569999999999999</v>
+        <v>1.46E-2</v>
       </c>
       <c r="I111">
-        <v>0.88390000000000002</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
@@ -5282,25 +5276,25 @@
         <v>254</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D112" t="s">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="E112">
-        <v>0.252</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F112">
-        <v>5006</v>
+        <v>6412210</v>
       </c>
       <c r="G112">
-        <v>1.839183181935847E-5</v>
+        <v>2.3558187756773586E-2</v>
       </c>
       <c r="H112">
-        <v>6.9999999999999999E-4</v>
+        <v>1.5088999999999999</v>
       </c>
       <c r="I112">
-        <v>4.0000000000000002E-4</v>
+        <v>1.7682</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
@@ -5311,25 +5305,25 @@
         <v>256</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="E113">
-        <v>0.28000000000000003</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F113">
-        <v>499682</v>
+        <v>1076</v>
       </c>
       <c r="G113">
-        <v>1.8358104888455211E-3</v>
+        <v>3.9531783934537983E-6</v>
       </c>
       <c r="H113">
-        <v>2.64E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="I113">
-        <v>1.4200000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
@@ -5340,25 +5334,25 @@
         <v>258</v>
       </c>
       <c r="C114" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E114">
-        <v>8.4000000000000005E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="F114">
-        <v>93251</v>
+        <v>87636</v>
       </c>
       <c r="G114">
-        <v>3.4260022153156147E-4</v>
+        <v>3.2197094952483E-4</v>
       </c>
       <c r="H114">
-        <v>1.46E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="I114">
-        <v>1.7000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
@@ -5369,25 +5363,25 @@
         <v>260</v>
       </c>
       <c r="C115" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E115">
-        <v>0.10299999999999999</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="F115">
-        <v>6412210</v>
+        <v>192818</v>
       </c>
       <c r="G115">
-        <v>2.3558187756773586E-2</v>
+        <v>7.08405159357783E-4</v>
       </c>
       <c r="H115">
-        <v>1.5088999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="I115">
-        <v>1.7682</v>
+        <v>0.1024</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
@@ -5398,25 +5392,25 @@
         <v>262</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D116" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="E116">
-        <v>0.14399999999999999</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F116">
-        <v>1076</v>
+        <v>267234</v>
       </c>
       <c r="G116">
-        <v>3.9531783934537983E-6</v>
+        <v>9.8180638921582927E-4</v>
       </c>
       <c r="H116">
-        <v>2.2000000000000001E-3</v>
+        <v>0.28210000000000002</v>
       </c>
       <c r="I116">
-        <v>2E-3</v>
+        <v>0.3508</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
@@ -5427,25 +5421,25 @@
         <v>264</v>
       </c>
       <c r="C117" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E117">
-        <v>6.3E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F117">
-        <v>87636</v>
+        <v>1543879</v>
       </c>
       <c r="G117">
-        <v>3.2197094952483E-4</v>
+        <v>5.6721460082779333E-3</v>
       </c>
       <c r="H117">
-        <v>1.7600000000000001E-2</v>
+        <v>0.61060000000000003</v>
       </c>
       <c r="I117">
-        <v>2.7E-2</v>
+        <v>0.54590000000000005</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
@@ -5456,25 +5450,25 @@
         <v>266</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D118" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E118">
-        <v>0.14499999999999999</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F118">
-        <v>192818</v>
+        <v>2565766</v>
       </c>
       <c r="G118">
-        <v>7.08405159357783E-4</v>
+        <v>9.4265155333256301E-3</v>
       </c>
       <c r="H118">
-        <v>0.108</v>
+        <v>5.9153000000000002</v>
       </c>
       <c r="I118">
-        <v>0.1024</v>
+        <v>7.3661000000000003</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
@@ -5485,25 +5479,25 @@
         <v>268</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="E119">
-        <v>0.10299999999999999</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F119">
-        <v>267234</v>
+        <v>1346905</v>
       </c>
       <c r="G119">
-        <v>9.8180638921582927E-4</v>
+        <v>4.9484718810733162E-3</v>
       </c>
       <c r="H119">
-        <v>0.28210000000000002</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="I119">
-        <v>0.3508</v>
+        <v>3.8899999999999997E-2</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
@@ -5514,25 +5508,25 @@
         <v>270</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E120">
-        <v>0.14399999999999999</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="F120">
-        <v>1543879</v>
+        <v>1022683</v>
       </c>
       <c r="G120">
-        <v>5.6721460082779333E-3</v>
+        <v>3.757293995309025E-3</v>
       </c>
       <c r="H120">
-        <v>0.61060000000000003</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="I120">
-        <v>0.54590000000000005</v>
+        <v>2.81E-2</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
@@ -5543,25 +5537,25 @@
         <v>272</v>
       </c>
       <c r="C121" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E121">
-        <v>7.4999999999999997E-2</v>
+        <v>0.252</v>
       </c>
       <c r="F121">
-        <v>2565766</v>
+        <v>342306</v>
       </c>
       <c r="G121">
-        <v>9.4265155333256301E-3</v>
+        <v>1.2576177352691411E-3</v>
       </c>
       <c r="H121">
-        <v>5.9153000000000002</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="I121">
-        <v>7.3661000000000003</v>
+        <v>2.9600000000000001E-2</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
@@ -5572,25 +5566,25 @@
         <v>274</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D122" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="E122">
-        <v>9.7000000000000003E-2</v>
+        <v>0.16</v>
       </c>
       <c r="F122">
-        <v>1346905</v>
+        <v>103933</v>
       </c>
       <c r="G122">
-        <v>4.9484718810733162E-3</v>
+        <v>3.818454367721502E-4</v>
       </c>
       <c r="H122">
-        <v>4.9299999999999997E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="I122">
-        <v>3.8899999999999997E-2</v>
+        <v>2.3E-3</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
@@ -5604,22 +5598,22 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E123">
-        <v>0.26500000000000001</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F123">
-        <v>1022683</v>
+        <v>310385</v>
       </c>
       <c r="G123">
-        <v>3.757293995309025E-3</v>
+        <v>1.1403413342492166E-3</v>
       </c>
       <c r="H123">
-        <v>5.1499999999999997E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="I123">
-        <v>2.81E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
@@ -5630,25 +5624,25 @@
         <v>278</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E124">
-        <v>0.252</v>
+        <v>0.112</v>
       </c>
       <c r="F124">
-        <v>342306</v>
+        <v>5839685</v>
       </c>
       <c r="G124">
-        <v>1.2576177352691411E-3</v>
+        <v>2.1454755173397996E-2</v>
       </c>
       <c r="H124">
-        <v>5.1900000000000002E-2</v>
+        <v>0.25359999999999999</v>
       </c>
       <c r="I124">
-        <v>2.9600000000000001E-2</v>
+        <v>0.1867</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
@@ -5659,25 +5653,25 @@
         <v>280</v>
       </c>
       <c r="C125" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D125" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E125">
-        <v>0.16</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="F125">
-        <v>103933</v>
+        <v>12280</v>
       </c>
       <c r="G125">
-        <v>3.818454367721502E-4</v>
+        <v>4.5116199508933679E-5</v>
       </c>
       <c r="H125">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="I125">
-        <v>2.3E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
@@ -5688,25 +5682,25 @@
         <v>282</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E126">
-        <v>4.2000000000000003E-2</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="F126">
-        <v>310385</v>
+        <v>32882</v>
       </c>
       <c r="G126">
-        <v>1.1403413342492166E-3</v>
+        <v>1.2080707428768382E-4</v>
       </c>
       <c r="H126">
-        <v>1.1299999999999999E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="I126">
-        <v>1.2E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
@@ -5717,25 +5711,25 @@
         <v>284</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E127">
-        <v>0.112</v>
+        <v>0.221</v>
       </c>
       <c r="F127">
-        <v>5839685</v>
+        <v>8818</v>
       </c>
       <c r="G127">
-        <v>2.1454755173397996E-2</v>
+        <v>3.2396958246724529E-5</v>
       </c>
       <c r="H127">
-        <v>0.25359999999999999</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="I127">
-        <v>0.1867</v>
+        <v>4.3E-3</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
@@ -5746,25 +5740,25 @@
         <v>286</v>
       </c>
       <c r="C128" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D128" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="E128">
-        <v>0.65400000000000003</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F128">
-        <v>12280</v>
+        <v>7000</v>
       </c>
       <c r="G128">
-        <v>4.5116199508933679E-5</v>
+        <v>2.5717703303138094E-5</v>
       </c>
       <c r="H128">
-        <v>2.2000000000000001E-3</v>
+        <v>1.61E-2</v>
       </c>
       <c r="I128">
-        <v>1.1000000000000001E-3</v>
+        <v>1.5900000000000001E-2</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
@@ -5775,25 +5769,25 @@
         <v>288</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D129" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E129">
-        <v>0.52200000000000002</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F129">
-        <v>32882</v>
+        <v>6571</v>
       </c>
       <c r="G129">
-        <v>1.2080707428768382E-4</v>
+        <v>2.4141575486417199E-5</v>
       </c>
       <c r="H129">
-        <v>2.1100000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I129">
-        <v>1.2500000000000001E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
@@ -5804,25 +5798,25 @@
         <v>290</v>
       </c>
       <c r="C130" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D130" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E130">
-        <v>0.221</v>
+        <v>0.156</v>
       </c>
       <c r="F130">
-        <v>8818</v>
+        <v>1561618</v>
       </c>
       <c r="G130">
-        <v>3.2396958246724529E-5</v>
+        <v>5.7373183424057001E-3</v>
       </c>
       <c r="H130">
-        <v>7.0000000000000001E-3</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="I130">
-        <v>4.3E-3</v>
+        <v>6.3500000000000001E-2</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
@@ -5833,25 +5827,25 @@
         <v>292</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="E131">
         <v>0.10299999999999999</v>
       </c>
       <c r="F131">
-        <v>7000</v>
+        <v>485586</v>
       </c>
       <c r="G131">
-        <v>2.5717703303138094E-5</v>
+        <v>1.7840223823082306E-3</v>
       </c>
       <c r="H131">
-        <v>1.61E-2</v>
+        <v>0.80010000000000003</v>
       </c>
       <c r="I131">
-        <v>1.5900000000000001E-2</v>
+        <v>1.0687</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
@@ -5865,22 +5859,22 @@
         <v>13</v>
       </c>
       <c r="D132" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="E132">
-        <v>0.10299999999999999</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="F132">
-        <v>6571</v>
+        <v>11730</v>
       </c>
       <c r="G132">
-        <v>2.4141575486417199E-5</v>
+        <v>4.3095522820829977E-5</v>
       </c>
       <c r="H132">
-        <v>1.6E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="I132">
-        <v>1.9300000000000001E-2</v>
+        <v>7.9000000000000008E-3</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
@@ -5891,25 +5885,25 @@
         <v>296</v>
       </c>
       <c r="C133" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D133" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E133">
-        <v>0.156</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="F133">
-        <v>1561618</v>
+        <v>96655</v>
       </c>
       <c r="G133">
-        <v>5.7373183424057001E-3</v>
+        <v>3.5510637325211606E-4</v>
       </c>
       <c r="H133">
-        <v>6.4500000000000002E-2</v>
+        <v>0.1143</v>
       </c>
       <c r="I133">
-        <v>6.3500000000000001E-2</v>
+        <v>0.17560000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
@@ -5920,25 +5914,25 @@
         <v>298</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D134" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E134">
-        <v>0.10299999999999999</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="F134">
-        <v>485586</v>
+        <v>359483</v>
       </c>
       <c r="G134">
-        <v>1.7840223823082306E-3</v>
+        <v>1.3207253052174273E-3</v>
       </c>
       <c r="H134">
-        <v>0.80010000000000003</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="I134">
-        <v>1.0687</v>
+        <v>1.5699999999999999E-2</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
@@ -5949,25 +5943,25 @@
         <v>300</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D135" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E135">
-        <v>0.35799999999999998</v>
+        <v>0.252</v>
       </c>
       <c r="F135">
-        <v>11730</v>
+        <v>3263</v>
       </c>
       <c r="G135">
-        <v>4.3095522820829977E-5</v>
+        <v>1.1988123696877085E-5</v>
       </c>
       <c r="H135">
-        <v>1.4500000000000001E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="I135">
-        <v>7.9000000000000008E-3</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
@@ -5978,25 +5972,25 @@
         <v>302</v>
       </c>
       <c r="C136" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E136">
-        <v>4.1000000000000002E-2</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="F136">
-        <v>96655</v>
+        <v>108421</v>
       </c>
       <c r="G136">
-        <v>3.5510637325211606E-4</v>
+        <v>3.9833415854707643E-4</v>
       </c>
       <c r="H136">
-        <v>0.1143</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="I136">
-        <v>0.17560000000000001</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
@@ -6007,25 +6001,25 @@
         <v>304</v>
       </c>
       <c r="C137" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D137" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="E137">
-        <v>0.19400000000000001</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F137">
-        <v>359483</v>
+        <v>19842</v>
       </c>
       <c r="G137">
-        <v>1.3207253052174273E-3</v>
+        <v>7.2898666991552287E-5</v>
       </c>
       <c r="H137">
-        <v>2.0299999999999999E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="I137">
-        <v>1.5699999999999999E-2</v>
+        <v>0.25559999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
@@ -6036,25 +6030,25 @@
         <v>306</v>
       </c>
       <c r="C138" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D138" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="E138">
-        <v>0.252</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F138">
-        <v>3263</v>
+        <v>237569</v>
       </c>
       <c r="G138">
-        <v>1.1988123696877085E-5</v>
+        <v>8.7281843657474481E-4</v>
       </c>
       <c r="H138">
-        <v>2.0000000000000001E-4</v>
+        <v>0.31879999999999997</v>
       </c>
       <c r="I138">
-        <v>1E-4</v>
+        <v>0.41920000000000002</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.15">
@@ -6065,25 +6059,25 @@
         <v>308</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="E139">
-        <v>0.14499999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="F139">
-        <v>108421</v>
+        <v>4465798</v>
       </c>
       <c r="G139">
-        <v>3.9833415854707643E-4</v>
+        <v>1.6407152567963927E-2</v>
       </c>
       <c r="H139">
-        <v>1.6999999999999999E-3</v>
+        <v>1.9783999999999999</v>
       </c>
       <c r="I139">
-        <v>1.4E-3</v>
+        <v>1.2105999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.15">
@@ -6094,25 +6088,25 @@
         <v>310</v>
       </c>
       <c r="C140" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D140" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="E140">
-        <v>0.10299999999999999</v>
+        <v>0.112</v>
       </c>
       <c r="F140">
-        <v>19842</v>
+        <v>2025772</v>
       </c>
       <c r="G140">
-        <v>7.2898666991552287E-5</v>
+        <v>7.4426004651149515E-3</v>
       </c>
       <c r="H140">
-        <v>6.4000000000000001E-2</v>
+        <v>0.106</v>
       </c>
       <c r="I140">
-        <v>0.25559999999999999</v>
+        <v>7.6399999999999996E-2</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.15">
@@ -6123,25 +6117,25 @@
         <v>312</v>
       </c>
       <c r="C141" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E141">
-        <v>5.3999999999999999E-2</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="F141">
-        <v>237569</v>
+        <v>4709157</v>
       </c>
       <c r="G141">
-        <v>8.7281843657474481E-4</v>
+        <v>1.7301243219127981E-2</v>
       </c>
       <c r="H141">
-        <v>0.31879999999999997</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="I141">
-        <v>0.41920000000000002</v>
+        <v>8.5300000000000001E-2</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.15">
@@ -6152,25 +6146,25 @@
         <v>314</v>
       </c>
       <c r="C142" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D142" t="s">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="E142">
-        <v>0.24</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="F142">
-        <v>4465798</v>
+        <v>2621606</v>
       </c>
       <c r="G142">
-        <v>1.6407152567963927E-2</v>
+        <v>9.6316693265323765E-3</v>
       </c>
       <c r="H142">
-        <v>1.9783999999999999</v>
+        <v>4.9968000000000004</v>
       </c>
       <c r="I142">
-        <v>1.2105999999999999</v>
+        <v>2.7774999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.15">
@@ -6181,25 +6175,25 @@
         <v>316</v>
       </c>
       <c r="C143" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D143" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="E143">
-        <v>0.112</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F143">
-        <v>2025772</v>
+        <v>1292740</v>
       </c>
       <c r="G143">
-        <v>7.4426004651149515E-3</v>
+        <v>4.7494719668712479E-3</v>
       </c>
       <c r="H143">
-        <v>0.106</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="I143">
-        <v>7.6399999999999996E-2</v>
+        <v>7.5399999999999995E-2</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.15">
@@ -6210,25 +6204,25 @@
         <v>318</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E144">
-        <v>0.27700000000000002</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="F144">
-        <v>4709157</v>
+        <v>31300</v>
       </c>
       <c r="G144">
-        <v>1.7301243219127981E-2</v>
+        <v>1.1499487334117461E-4</v>
       </c>
       <c r="H144">
-        <v>0.14399999999999999</v>
+        <v>1.24E-2</v>
       </c>
       <c r="I144">
-        <v>8.5300000000000001E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.15">
@@ -6239,25 +6233,25 @@
         <v>320</v>
       </c>
       <c r="C145" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="E145">
-        <v>0.35699999999999998</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F145">
-        <v>2621606</v>
+        <v>164305</v>
       </c>
       <c r="G145">
-        <v>9.6316693265323765E-3</v>
+        <v>6.03649605888872E-4</v>
       </c>
       <c r="H145">
-        <v>4.9968000000000004</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="I145">
-        <v>2.7774999999999999</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.15">
@@ -6268,25 +6262,25 @@
         <v>322</v>
       </c>
       <c r="C146" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D146" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E146">
-        <v>0.10299999999999999</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="F146">
-        <v>1292740</v>
+        <v>1365594</v>
       </c>
       <c r="G146">
-        <v>4.7494719668712479E-3</v>
+        <v>5.0171344749350803E-3</v>
       </c>
       <c r="H146">
-        <v>7.1999999999999995E-2</v>
+        <v>0.49590000000000001</v>
       </c>
       <c r="I146">
-        <v>7.5399999999999995E-2</v>
+        <v>0.4415</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.15">
@@ -6297,25 +6291,25 @@
         <v>324</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D147" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="E147">
-        <v>0.16300000000000001</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F147">
-        <v>31300</v>
+        <v>386998</v>
       </c>
       <c r="G147">
-        <v>1.1499487334117461E-4</v>
+        <v>1.4218142489868337E-3</v>
       </c>
       <c r="H147">
-        <v>1.24E-2</v>
+        <v>0.15260000000000001</v>
       </c>
       <c r="I147">
-        <v>9.2999999999999992E-3</v>
+        <v>0.31009999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.15">
@@ -6326,25 +6320,25 @@
         <v>326</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D148" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="E148">
-        <v>4.8000000000000001E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F148">
-        <v>164305</v>
+        <v>3532495</v>
       </c>
       <c r="G148">
-        <v>6.03649605888872E-4</v>
+        <v>1.2978236904259827E-2</v>
       </c>
       <c r="H148">
-        <v>6.7999999999999996E-3</v>
+        <v>3.2273999999999998</v>
       </c>
       <c r="I148">
-        <v>7.6E-3</v>
+        <v>3.1551</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.15">
@@ -6355,25 +6349,25 @@
         <v>328</v>
       </c>
       <c r="C149" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D149" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E149">
-        <v>0.17799999999999999</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F149">
-        <v>1365594</v>
+        <v>135294</v>
       </c>
       <c r="G149">
-        <v>5.0171344749350803E-3</v>
+        <v>4.9706442152782357E-4</v>
       </c>
       <c r="H149">
-        <v>0.49590000000000001</v>
+        <v>0.11119999999999999</v>
       </c>
       <c r="I149">
-        <v>0.4415</v>
+        <v>0.1404</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.15">
@@ -6384,19 +6378,25 @@
         <v>330</v>
       </c>
       <c r="C150" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D150" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E150">
-        <v>0.252</v>
+        <v>0.223</v>
+      </c>
+      <c r="F150">
+        <v>8476</v>
+      </c>
+      <c r="G150">
+        <v>3.1140464742485493E-5</v>
       </c>
       <c r="H150">
-        <v>0.14360000000000001</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="I150">
-        <v>9.3600000000000003E-2</v>
+        <v>1.49E-2</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.15">
@@ -6407,25 +6407,25 @@
         <v>332</v>
       </c>
       <c r="C151" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D151" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E151">
-        <v>2.3E-2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F151">
-        <v>386998</v>
+        <v>1745123</v>
       </c>
       <c r="G151">
-        <v>1.4218142489868337E-3</v>
+        <v>6.411507934497465E-3</v>
       </c>
       <c r="H151">
-        <v>0.15260000000000001</v>
+        <v>0.2954</v>
       </c>
       <c r="I151">
-        <v>0.31009999999999999</v>
+        <v>0.10639999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.15">
@@ -6436,25 +6436,25 @@
         <v>334</v>
       </c>
       <c r="C152" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D152" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E152">
         <v>0.14399999999999999</v>
       </c>
       <c r="F152">
-        <v>3532495</v>
+        <v>559235</v>
       </c>
       <c r="G152">
-        <v>1.2978236904259827E-2</v>
+        <v>2.0546056866757758E-3</v>
       </c>
       <c r="H152">
-        <v>3.2273999999999998</v>
+        <v>0.73580000000000001</v>
       </c>
       <c r="I152">
-        <v>3.1551</v>
+        <v>0.63800000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.15">
@@ -6465,25 +6465,25 @@
         <v>336</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D153" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E153">
-        <v>5.7000000000000002E-2</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="F153">
-        <v>135294</v>
+        <v>5596657</v>
       </c>
       <c r="G153">
-        <v>4.9706442152782357E-4</v>
+        <v>2.0561880602204419E-2</v>
       </c>
       <c r="H153">
-        <v>0.11119999999999999</v>
+        <v>1.526</v>
       </c>
       <c r="I153">
-        <v>0.1404</v>
+        <v>1.1439999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.15">
@@ -6494,25 +6494,25 @@
         <v>338</v>
       </c>
       <c r="C154" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="E154">
-        <v>0.223</v>
+        <v>0.252</v>
       </c>
       <c r="F154">
-        <v>8476</v>
+        <v>2851</v>
       </c>
       <c r="G154">
-        <v>3.1140464742485493E-5</v>
+        <v>1.0474453159606672E-5</v>
       </c>
       <c r="H154">
-        <v>2.0799999999999999E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="I154">
-        <v>1.49E-2</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.15">
@@ -6523,25 +6523,25 @@
         <v>340</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D155" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="E155">
-        <v>0.28999999999999998</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F155">
-        <v>1745123</v>
+        <v>554</v>
       </c>
       <c r="G155">
-        <v>6.411507934497465E-3</v>
+        <v>2.0353725185626434E-6</v>
       </c>
       <c r="H155">
-        <v>0.2954</v>
+        <v>1.4E-3</v>
       </c>
       <c r="I155">
-        <v>0.10639999999999999</v>
+        <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.15">
@@ -6552,25 +6552,25 @@
         <v>342</v>
       </c>
       <c r="C156" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E156">
-        <v>0.14399999999999999</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F156">
-        <v>559235</v>
+        <v>1724509</v>
       </c>
       <c r="G156">
-        <v>2.0546056866757758E-3</v>
+        <v>6.3357729722273385E-3</v>
       </c>
       <c r="H156">
-        <v>0.73580000000000001</v>
+        <v>0.40439999999999998</v>
       </c>
       <c r="I156">
-        <v>0.63800000000000001</v>
+        <v>0.33789999999999998</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.15">
@@ -6581,25 +6581,25 @@
         <v>344</v>
       </c>
       <c r="C157" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D157" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E157">
-        <v>0.21199999999999999</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="F157">
-        <v>5596657</v>
+        <v>600741</v>
       </c>
       <c r="G157">
-        <v>2.0561880602204419E-2</v>
+        <v>2.2070969714329258E-3</v>
       </c>
       <c r="H157">
-        <v>1.526</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="I157">
-        <v>1.1439999999999999</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.15">
@@ -6610,25 +6610,25 @@
         <v>346</v>
       </c>
       <c r="C158" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E158">
-        <v>0.252</v>
+        <v>0.215</v>
       </c>
       <c r="F158">
-        <v>2851</v>
+        <v>4925590</v>
       </c>
       <c r="G158">
-        <v>1.0474453159606672E-5</v>
+        <v>1.8096408887557709E-2</v>
       </c>
       <c r="H158">
-        <v>2.0000000000000001E-4</v>
+        <v>0.21210000000000001</v>
       </c>
       <c r="I158">
-        <v>1E-4</v>
+        <v>0.1363</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.15">
@@ -6639,25 +6639,25 @@
         <v>348</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D159" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="E159">
-        <v>0.14399999999999999</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="F159">
-        <v>554</v>
+        <v>37825550</v>
       </c>
       <c r="G159">
-        <v>2.0353725185626434E-6</v>
+        <v>0.13896946745400215</v>
       </c>
       <c r="H159">
-        <v>1.4E-3</v>
+        <v>0.8649</v>
       </c>
       <c r="I159">
-        <v>1.1999999999999999E-3</v>
+        <v>0.48759999999999998</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.15">
@@ -6668,25 +6668,25 @@
         <v>350</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D160" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E160">
-        <v>0.10299999999999999</v>
+        <v>0.252</v>
       </c>
       <c r="F160">
-        <v>1724509</v>
+        <v>310379</v>
       </c>
       <c r="G160">
-        <v>6.3357729722273385E-3</v>
+        <v>1.1403192905035282E-3</v>
       </c>
       <c r="H160">
-        <v>0.40439999999999998</v>
+        <v>6.7699999999999996E-2</v>
       </c>
       <c r="I160">
-        <v>0.33789999999999998</v>
+        <v>1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.15">
@@ -6697,25 +6697,25 @@
         <v>352</v>
       </c>
       <c r="C161" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D161" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="E161">
-        <v>0.19900000000000001</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="F161">
-        <v>600741</v>
+        <v>25443</v>
       </c>
       <c r="G161">
-        <v>2.2070969714329258E-3</v>
+        <v>9.3476503591677498E-5</v>
       </c>
       <c r="H161">
-        <v>9.4999999999999998E-3</v>
+        <v>7.0599999999999996E-2</v>
       </c>
       <c r="I161">
-        <v>8.6E-3</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.15">
@@ -6726,25 +6726,25 @@
         <v>354</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D162" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="E162">
-        <v>0.215</v>
+        <v>0.252</v>
       </c>
       <c r="F162">
-        <v>4925590</v>
+        <v>2669998</v>
       </c>
       <c r="G162">
-        <v>1.8096408887557709E-2</v>
+        <v>9.8094594834245864E-3</v>
       </c>
       <c r="H162">
-        <v>0.21210000000000001</v>
+        <v>0.32140000000000002</v>
       </c>
       <c r="I162">
-        <v>0.1363</v>
+        <v>0.2233</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.15">
@@ -6755,25 +6755,25 @@
         <v>356</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D163" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E163">
-        <v>0.33500000000000002</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F163">
-        <v>37825550</v>
+        <v>3268227</v>
       </c>
       <c r="G163">
-        <v>0.13896946745400215</v>
+        <v>1.2007327473329299E-2</v>
       </c>
       <c r="H163">
-        <v>0.8649</v>
+        <v>5.7587999999999999</v>
       </c>
       <c r="I163">
-        <v>0.48759999999999998</v>
+        <v>6.0407000000000002</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.15">
@@ -6784,140 +6784,24 @@
         <v>358</v>
       </c>
       <c r="C164" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D164" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E164">
-        <v>0.252</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F164">
-        <v>310379</v>
+        <v>887497</v>
       </c>
       <c r="G164">
-        <v>1.1403192905035282E-3</v>
+        <v>3.2606263612035926E-3</v>
       </c>
       <c r="H164">
-        <v>6.7699999999999996E-2</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="I164">
-        <v>1.1599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A165" t="s">
-        <v>359</v>
-      </c>
-      <c r="B165" t="s">
-        <v>360</v>
-      </c>
-      <c r="C165" t="s">
-        <v>31</v>
-      </c>
-      <c r="D165" t="s">
-        <v>128</v>
-      </c>
-      <c r="E165">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="F165">
-        <v>25443</v>
-      </c>
-      <c r="G165">
-        <v>9.3476503591677498E-5</v>
-      </c>
-      <c r="H165">
-        <v>7.0599999999999996E-2</v>
-      </c>
-      <c r="I165">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A166" t="s">
-        <v>361</v>
-      </c>
-      <c r="B166" t="s">
-        <v>362</v>
-      </c>
-      <c r="C166" t="s">
-        <v>20</v>
-      </c>
-      <c r="D166" t="s">
-        <v>26</v>
-      </c>
-      <c r="E166">
-        <v>0.252</v>
-      </c>
-      <c r="F166">
-        <v>2669998</v>
-      </c>
-      <c r="G166">
-        <v>9.8094594834245864E-3</v>
-      </c>
-      <c r="H166">
-        <v>0.32140000000000002</v>
-      </c>
-      <c r="I166">
-        <v>0.2233</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A167" t="s">
-        <v>363</v>
-      </c>
-      <c r="B167" t="s">
-        <v>364</v>
-      </c>
-      <c r="C167" t="s">
-        <v>37</v>
-      </c>
-      <c r="D167" t="s">
-        <v>64</v>
-      </c>
-      <c r="E167">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="F167">
-        <v>3268227</v>
-      </c>
-      <c r="G167">
-        <v>1.2007327473329299E-2</v>
-      </c>
-      <c r="H167">
-        <v>5.7587999999999999</v>
-      </c>
-      <c r="I167">
-        <v>6.0407000000000002</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A168" t="s">
-        <v>365</v>
-      </c>
-      <c r="B168" t="s">
-        <v>366</v>
-      </c>
-      <c r="C168" t="s">
-        <v>37</v>
-      </c>
-      <c r="D168" t="s">
-        <v>38</v>
-      </c>
-      <c r="E168">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="F168">
-        <v>887497</v>
-      </c>
-      <c r="G168">
-        <v>3.2606263612035926E-3</v>
-      </c>
-      <c r="H168">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="I168">
         <v>0.74399999999999999</v>
       </c>
     </row>
